--- a/userSync/usuarios.xlsx
+++ b/userSync/usuarios.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20416"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USUARIO\OneDrive - UPB\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\000092114\Documents\UPBMAKE\userSync\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3DAEE4F8-B1E5-499D-8B3B-EB2E6F21CBD9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6EBF8FC6-4E4E-4E3F-9E9F-E7192ADC38BE}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="10140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="36">
   <si>
     <t>Nombre</t>
   </si>
@@ -116,13 +116,25 @@
   </si>
   <si>
     <t>operator</t>
+  </si>
+  <si>
+    <t>Luis Miguel Aristizabal</t>
+  </si>
+  <si>
+    <t>luismiguel.aristizabal@upb.edu.co</t>
+  </si>
+  <si>
+    <t>LMAG</t>
+  </si>
+  <si>
+    <t>Makersp@ce</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -142,6 +154,14 @@
       <u/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -179,17 +199,20 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -529,7 +552,7 @@
   <dimension ref="A1:E16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -537,6 +560,7 @@
     <col min="1" max="1" width="25.109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="27.77734375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
@@ -692,10 +716,30 @@
         <v>31</v>
       </c>
     </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>32</v>
+      </c>
+      <c r="B10" t="s">
+        <v>33</v>
+      </c>
+      <c r="C10" t="s">
+        <v>34</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="E10" t="s">
+        <v>30</v>
+      </c>
+    </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B16" s="2"/>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="D10" r:id="rId1" xr:uid="{6749F765-0619-411F-9141-434446DB83A7}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>